--- a/Worklog.xlsx
+++ b/Worklog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcmillanr\AppData\Local\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhysm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E89377-03A6-4A5F-88C3-2987E2FB86C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32655" yWindow="1065" windowWidth="30960" windowHeight="16440"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>Student Name</t>
   </si>
@@ -112,12 +104,33 @@
   </si>
   <si>
     <t>Localised Energy Mesh Network</t>
+  </si>
+  <si>
+    <t>Searching/Reading over IEEE database for literiture relating to P2P, microgrids and Rural power grids</t>
+  </si>
+  <si>
+    <t>Beginning write up on Microgrids literiture review</t>
+  </si>
+  <si>
+    <t>Construct/install smart plugs for home energy moitoring through Home Assistant via VM VirtualBox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert Home assistant to Raspberry Pi3 for continuous running server for data collection </t>
+  </si>
+  <si>
+    <t>Continue write up on Microgrids literiture review</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Appologies for lack of entries priot to week 3, I wasn't aware we were meant to be time tracking all actions.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -174,19 +187,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,26 +519,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.625" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="3" max="3" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="6" width="28.625" customWidth="1"/>
-    <col min="7" max="7" width="68.875" customWidth="1"/>
-    <col min="8" max="8" width="22.125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
+    <col min="2" max="2" width="20.09765625" customWidth="1"/>
+    <col min="3" max="3" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.09765625" customWidth="1"/>
+    <col min="5" max="5" width="20.8984375" customWidth="1"/>
+    <col min="6" max="6" width="28.59765625" customWidth="1"/>
+    <col min="7" max="7" width="86.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,32 +560,37 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -582,19 +600,181 @@
       <c r="C3" t="s">
         <v>25</v>
       </c>
+      <c r="D3" s="3">
+        <v>44886</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44887</v>
+      </c>
+      <c r="E4">
+        <v>90</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44890</v>
+      </c>
+      <c r="E5">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44891</v>
+      </c>
+      <c r="E6">
+        <v>90</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3">
+        <v>44892</v>
+      </c>
+      <c r="E7">
+        <v>90</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3">
+        <v>44893</v>
+      </c>
+      <c r="E8">
+        <v>90</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3">
+        <v>44893</v>
+      </c>
+      <c r="E9">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H3:H9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E432</xm:sqref>
+          <xm:sqref>E3:E430</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$11</xm:f>
           </x14:formula1>
@@ -607,19 +787,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>10</v>
       </c>
@@ -627,7 +807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>20</v>
       </c>
@@ -635,7 +815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>30</v>
       </c>
@@ -643,7 +823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40</v>
       </c>
@@ -651,7 +831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>50</v>
       </c>
@@ -659,7 +839,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>60</v>
       </c>
@@ -667,7 +847,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>70</v>
       </c>
@@ -675,7 +855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>80</v>
       </c>
@@ -683,7 +863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>90</v>
       </c>
@@ -691,7 +871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>100</v>
       </c>
@@ -699,7 +879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>110</v>
       </c>
@@ -707,13 +887,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>120</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B1:B11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:B11">
     <sortCondition ref="B1:B11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -721,21 +901,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9548BB13A35A7488760D6803BB59AAC" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b739e807c8d5f6231f02c9f6bad2116f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="365f5489-604f-48af-9336-e536b19d6d4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="758d9a703dd66b1c319d53e7e4b02bb3" ns2:_="">
     <xsd:import namespace="365f5489-604f-48af-9336-e536b19d6d4b"/>
@@ -867,24 +1032,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4531A1A-3339-4923-BE06-4FAA8D424468}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -900,4 +1063,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>